--- a/AzureTemplateGenerator/AzureNetworkInfrastructure.xlsx
+++ b/AzureTemplateGenerator/AzureNetworkInfrastructure.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\DEVOPS\TC-Cloud-Team-Automation-Scripting\AzureTemplateManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\DEVOPS\TC-Cloud-Team-Automation-Scripting\AzureTemplateGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="8955" tabRatio="582" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="8955" tabRatio="582" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="SUB" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="425">
   <si>
     <t>SUB</t>
   </si>
@@ -363,9 +363,6 @@
     <t>SUB-PAAS-SQLMI01</t>
   </si>
   <si>
-    <t>255.255.128.0</t>
-  </si>
-  <si>
     <t>UNUSED</t>
   </si>
   <si>
@@ -1125,19 +1122,7 @@
     <t>10.10.112.0 - 10.10.127.254</t>
   </si>
   <si>
-    <t>AWS 10.10.128.0/17</t>
-  </si>
-  <si>
-    <t>10.10.128.0 - 10.10.255.255</t>
-  </si>
-  <si>
-    <t>10.10.128.1 - 10.10.255.254</t>
-  </si>
-  <si>
     <t>AZURE GC - xx.xx.48.0/22</t>
-  </si>
-  <si>
-    <t>AWS GC - xx.xx.52.0/22</t>
   </si>
   <si>
     <t>Core Infrastructure</t>
@@ -1804,10 +1789,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -1815,7 +1800,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -1823,15 +1808,15 @@
         <v>19</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +1828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1876,31 +1861,31 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="L1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -1921,21 +1906,21 @@
         <v>25</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -1956,21 +1941,21 @@
         <v>25</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -1991,21 +1976,21 @@
         <v>23</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -2026,21 +2011,21 @@
         <v>23</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -2061,21 +2046,21 @@
         <v>25</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -2096,21 +2081,21 @@
         <v>25</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -2131,21 +2116,21 @@
         <v>23</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
@@ -2166,21 +2151,21 @@
         <v>23</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
@@ -2201,21 +2186,21 @@
         <v>25</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
@@ -2236,21 +2221,21 @@
         <v>25</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>4</v>
@@ -2271,21 +2256,21 @@
         <v>23</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>4</v>
@@ -2306,16 +2291,16 @@
         <v>23</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -2332,7 +2317,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>43</v>
@@ -2341,16 +2326,16 @@
         <v>20</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -2367,7 +2352,7 @@
         <v>46</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>48</v>
@@ -2376,16 +2361,16 @@
         <v>21</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -2402,7 +2387,7 @@
         <v>46</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>49</v>
@@ -2411,16 +2396,16 @@
         <v>22</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
@@ -2437,7 +2422,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>43</v>
@@ -2446,16 +2431,16 @@
         <v>20</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
@@ -2472,7 +2457,7 @@
         <v>47</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>48</v>
@@ -2481,16 +2466,16 @@
         <v>21</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
@@ -2507,7 +2492,7 @@
         <v>47</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>49</v>
@@ -2516,16 +2501,16 @@
         <v>22</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
@@ -2542,7 +2527,7 @@
         <v>44</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>43</v>
@@ -2551,16 +2536,16 @@
         <v>20</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
@@ -2577,7 +2562,7 @@
         <v>44</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>48</v>
@@ -2586,16 +2571,16 @@
         <v>21</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
@@ -2612,7 +2597,7 @@
         <v>44</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>49</v>
@@ -2621,16 +2606,16 @@
         <v>22</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
@@ -2647,7 +2632,7 @@
         <v>45</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>43</v>
@@ -2656,16 +2641,16 @@
         <v>20</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
@@ -2682,7 +2667,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>48</v>
@@ -2691,16 +2676,16 @@
         <v>21</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
@@ -2717,7 +2702,7 @@
         <v>45</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>49</v>
@@ -2726,21 +2711,21 @@
         <v>22</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>10</v>
@@ -2761,21 +2746,21 @@
         <v>28</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>10</v>
@@ -2796,21 +2781,21 @@
         <v>28</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -2831,21 +2816,21 @@
         <v>27</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>10</v>
@@ -2866,21 +2851,21 @@
         <v>27</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>10</v>
@@ -2901,21 +2886,21 @@
         <v>28</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>10</v>
@@ -2936,21 +2921,21 @@
         <v>28</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>10</v>
@@ -2971,21 +2956,21 @@
         <v>27</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>10</v>
@@ -3006,21 +2991,21 @@
         <v>27</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>10</v>
@@ -3041,21 +3026,21 @@
         <v>28</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>10</v>
@@ -3076,21 +3061,21 @@
         <v>28</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>10</v>
@@ -3111,21 +3096,21 @@
         <v>27</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>10</v>
@@ -3146,16 +3131,16 @@
         <v>27</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
@@ -3172,7 +3157,7 @@
         <v>53</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>50</v>
@@ -3181,16 +3166,16 @@
         <v>26</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
@@ -3207,7 +3192,7 @@
         <v>53</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>55</v>
@@ -3216,16 +3201,16 @@
         <v>41</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
@@ -3242,7 +3227,7 @@
         <v>53</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>56</v>
@@ -3251,16 +3236,16 @@
         <v>42</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
@@ -3277,7 +3262,7 @@
         <v>54</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>50</v>
@@ -3286,16 +3271,16 @@
         <v>26</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
@@ -3312,7 +3297,7 @@
         <v>54</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>55</v>
@@ -3321,16 +3306,16 @@
         <v>41</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
@@ -3347,7 +3332,7 @@
         <v>54</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>56</v>
@@ -3356,16 +3341,16 @@
         <v>42</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
@@ -3382,7 +3367,7 @@
         <v>51</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>50</v>
@@ -3391,16 +3376,16 @@
         <v>26</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
@@ -3417,7 +3402,7 @@
         <v>51</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>55</v>
@@ -3426,16 +3411,16 @@
         <v>41</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
@@ -3452,7 +3437,7 @@
         <v>51</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>56</v>
@@ -3461,16 +3446,16 @@
         <v>42</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
@@ -3487,7 +3472,7 @@
         <v>52</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>50</v>
@@ -3496,16 +3481,16 @@
         <v>26</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
@@ -3522,7 +3507,7 @@
         <v>52</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>55</v>
@@ -3531,16 +3516,16 @@
         <v>41</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
@@ -3557,7 +3542,7 @@
         <v>52</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>56</v>
@@ -3566,16 +3551,16 @@
         <v>42</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3631,12 +3616,12 @@
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -3657,15 +3642,15 @@
         <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -3686,10 +3671,10 @@
         <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3743,12 +3728,12 @@
         <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -3769,13 +3754,13 @@
         <v>81</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -3796,7 +3781,7 @@
         <v>82</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -3836,28 +3821,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -3865,31 +3850,31 @@
         <v>79</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="9">
         <v>100</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -3921,31 +3906,31 @@
         <v>80</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="8">
         <v>100</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -4010,34 +3995,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="J1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -4045,37 +4030,37 @@
         <v>79</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" s="9">
         <v>112</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="J2" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K2" s="9">
         <v>8443</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
@@ -4111,37 +4096,37 @@
         <v>80</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="8">
         <v>100</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="J5" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K5" s="8">
         <v>8443</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -4209,28 +4194,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -4238,31 +4223,31 @@
         <v>79</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="9">
         <v>112</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="I2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -4294,31 +4279,31 @@
         <v>80</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" s="8">
         <v>112</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>193</v>
-      </c>
       <c r="I5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -4382,30 +4367,30 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -4414,26 +4399,26 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>210</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>211</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -4442,19 +4427,19 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -4499,36 +4484,36 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>4</v>
@@ -4537,19 +4522,19 @@
         <v>5</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9">
@@ -4559,12 +4544,12 @@
         <v>1</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>4</v>
@@ -4573,30 +4558,30 @@
         <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>10</v>
@@ -4605,19 +4590,19 @@
         <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8">
@@ -4627,12 +4612,12 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>10</v>
@@ -4641,25 +4626,25 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4694,37 +4679,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -4732,13 +4717,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="21">
         <v>2</v>
@@ -4747,7 +4732,7 @@
         <v>104</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H2" s="21">
         <v>104</v>
@@ -4756,7 +4741,7 @@
         <v>60</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K2" s="21">
         <v>10</v>
@@ -4767,13 +4752,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
@@ -4782,7 +4767,7 @@
         <v>52</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H3" s="21">
         <v>52</v>
@@ -4791,7 +4776,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K3" s="21">
         <v>5</v>
@@ -4822,16 +4807,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4839,13 +4824,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4853,13 +4838,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4867,13 +4852,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -4881,13 +4866,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -4895,13 +4880,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -4909,13 +4894,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -4923,13 +4908,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -4937,13 +4922,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -4951,13 +4936,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -4965,13 +4950,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -4979,13 +4964,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -4993,13 +4978,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -5007,13 +4992,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -5021,13 +5006,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -5035,13 +5020,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -5049,13 +5034,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -5063,13 +5048,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -5077,13 +5062,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -5091,13 +5076,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -5105,13 +5090,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5124,7 +5109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -5149,18 +5134,18 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -5169,18 +5154,18 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -5189,13 +5174,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5207,8 +5192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5264,7 +5249,7 @@
     </row>
     <row r="2" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>4</v>
@@ -5276,16 +5261,16 @@
         <v>90</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>314</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>315</v>
       </c>
       <c r="G2" s="16">
         <v>2046</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -5304,7 +5289,7 @@
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -5316,7 +5301,7 @@
         <v>126</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -5335,7 +5320,7 @@
     </row>
     <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -5347,7 +5332,7 @@
         <v>126</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -5366,7 +5351,7 @@
     </row>
     <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -5378,7 +5363,7 @@
         <v>126</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -5397,7 +5382,7 @@
     </row>
     <row r="6" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -5409,7 +5394,7 @@
         <v>126</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -5428,20 +5413,20 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="9"/>
       <c r="H7" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
@@ -5452,7 +5437,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
@@ -5464,21 +5449,21 @@
         <v>90</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="G9" s="7">
         <v>2046</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
@@ -5490,7 +5475,7 @@
         <v>126</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -5509,7 +5494,7 @@
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
@@ -5521,7 +5506,7 @@
         <v>126</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -5540,7 +5525,7 @@
     </row>
     <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>4</v>
@@ -5552,7 +5537,7 @@
         <v>126</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -5571,7 +5556,7 @@
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>4</v>
@@ -5583,7 +5568,7 @@
         <v>126</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -5602,20 +5587,20 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="9"/>
       <c r="H14" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
@@ -5625,7 +5610,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -5637,21 +5622,21 @@
         <v>90</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="G16" s="7">
         <v>2046</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>4</v>
@@ -5663,7 +5648,7 @@
         <v>126</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -5682,7 +5667,7 @@
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>4</v>
@@ -5694,7 +5679,7 @@
         <v>126</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -5713,7 +5698,7 @@
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>4</v>
@@ -5725,7 +5710,7 @@
         <v>126</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -5744,20 +5729,20 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="9"/>
       <c r="H20" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
@@ -5779,16 +5764,16 @@
         <v>90</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="G22" s="7">
         <v>2046</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -5805,7 +5790,7 @@
         <v>126</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -5836,7 +5821,7 @@
         <v>126</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -5867,7 +5852,7 @@
         <v>126</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -5898,7 +5883,7 @@
         <v>126</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -5929,7 +5914,7 @@
         <v>126</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -5954,14 +5939,14 @@
         <v>4</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="9"/>
       <c r="H28" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
@@ -5983,16 +5968,16 @@
         <v>90</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="G30" s="7">
         <v>2046</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -6009,7 +5994,7 @@
         <v>126</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -6040,7 +6025,7 @@
         <v>126</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -6071,7 +6056,7 @@
         <v>126</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -6102,7 +6087,7 @@
         <v>126</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -6127,14 +6112,14 @@
         <v>4</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="9"/>
       <c r="H35" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
@@ -6156,16 +6141,16 @@
         <v>90</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="G37" s="7">
         <v>2046</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
@@ -6196,7 +6181,7 @@
         <v>126</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I38"/>
       <c r="J38"/>
@@ -6227,7 +6212,7 @@
         <v>126</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I39"/>
       <c r="J39"/>
@@ -6258,7 +6243,7 @@
         <v>126</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
@@ -6289,7 +6274,7 @@
         <v>126</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
@@ -6314,14 +6299,14 @@
         <v>4</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="9"/>
       <c r="H42" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
@@ -6343,16 +6328,16 @@
         <v>90</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="G44" s="7">
         <v>2046</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
@@ -6383,7 +6368,7 @@
         <v>126</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
@@ -6414,7 +6399,7 @@
         <v>126</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
@@ -6445,7 +6430,7 @@
         <v>126</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
@@ -6476,7 +6461,7 @@
         <v>126</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
@@ -6501,14 +6486,14 @@
         <v>4</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="9"/>
       <c r="H49" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
@@ -6518,7 +6503,7 @@
     </row>
     <row r="51" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
@@ -6530,16 +6515,16 @@
         <v>90</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="G51" s="7">
         <v>2046</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I51"/>
       <c r="J51"/>
@@ -6558,7 +6543,7 @@
     </row>
     <row r="52" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>10</v>
@@ -6570,7 +6555,7 @@
         <v>126</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
@@ -6589,7 +6574,7 @@
     </row>
     <row r="53" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>10</v>
@@ -6601,7 +6586,7 @@
         <v>126</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
@@ -6620,7 +6605,7 @@
     </row>
     <row r="54" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>10</v>
@@ -6632,7 +6617,7 @@
         <v>126</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -6651,7 +6636,7 @@
     </row>
     <row r="55" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>10</v>
@@ -6663,7 +6648,7 @@
         <v>126</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -6682,20 +6667,20 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="8"/>
       <c r="H56" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
@@ -6705,7 +6690,7 @@
     </row>
     <row r="58" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
@@ -6717,16 +6702,16 @@
         <v>90</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="G58" s="7">
         <v>2046</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I58"/>
       <c r="J58"/>
@@ -6745,7 +6730,7 @@
     </row>
     <row r="59" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>10</v>
@@ -6757,7 +6742,7 @@
         <v>126</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I59"/>
       <c r="J59"/>
@@ -6776,7 +6761,7 @@
     </row>
     <row r="60" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>10</v>
@@ -6788,7 +6773,7 @@
         <v>126</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
@@ -6807,7 +6792,7 @@
     </row>
     <row r="61" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>10</v>
@@ -6819,7 +6804,7 @@
         <v>126</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I61"/>
       <c r="J61"/>
@@ -6838,7 +6823,7 @@
     </row>
     <row r="62" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>10</v>
@@ -6850,7 +6835,7 @@
         <v>126</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
@@ -6869,20 +6854,20 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="8"/>
       <c r="H63" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
@@ -6892,7 +6877,7 @@
     </row>
     <row r="65" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>10</v>
@@ -6904,16 +6889,16 @@
         <v>90</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="G65" s="7">
         <v>2046</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>
@@ -6932,7 +6917,7 @@
     </row>
     <row r="66" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>10</v>
@@ -6944,7 +6929,7 @@
         <v>126</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I66"/>
       <c r="J66"/>
@@ -6963,7 +6948,7 @@
     </row>
     <row r="67" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>10</v>
@@ -6975,7 +6960,7 @@
         <v>126</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I67"/>
       <c r="J67"/>
@@ -6994,7 +6979,7 @@
     </row>
     <row r="68" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>10</v>
@@ -7006,7 +6991,7 @@
         <v>126</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I68"/>
       <c r="J68"/>
@@ -7025,20 +7010,20 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="8"/>
       <c r="H69" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
@@ -7060,16 +7045,16 @@
         <v>90</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="G71" s="7">
         <v>2046</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I71"/>
       <c r="J71"/>
@@ -7100,7 +7085,7 @@
         <v>126</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I72"/>
       <c r="J72"/>
@@ -7131,7 +7116,7 @@
         <v>126</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I73"/>
       <c r="J73"/>
@@ -7162,7 +7147,7 @@
         <v>126</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I74"/>
       <c r="J74"/>
@@ -7193,7 +7178,7 @@
         <v>126</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I75"/>
       <c r="J75"/>
@@ -7224,7 +7209,7 @@
         <v>126</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I76"/>
       <c r="J76"/>
@@ -7249,14 +7234,14 @@
         <v>10</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="8"/>
       <c r="H77" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.45">
@@ -7278,16 +7263,16 @@
         <v>90</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="G79" s="7">
         <v>2046</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I79"/>
       <c r="J79"/>
@@ -7318,7 +7303,7 @@
         <v>126</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I80"/>
       <c r="J80"/>
@@ -7349,7 +7334,7 @@
         <v>126</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I81"/>
       <c r="J81"/>
@@ -7380,7 +7365,7 @@
         <v>126</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I82"/>
       <c r="J82"/>
@@ -7411,7 +7396,7 @@
         <v>126</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I83"/>
       <c r="J83"/>
@@ -7436,14 +7421,14 @@
         <v>10</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="8"/>
       <c r="H84" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
@@ -7465,16 +7450,16 @@
         <v>90</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="G86" s="7">
         <v>2046</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I86"/>
       <c r="J86"/>
@@ -7505,7 +7490,7 @@
         <v>126</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I87"/>
       <c r="J87"/>
@@ -7536,7 +7521,7 @@
         <v>126</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I88"/>
       <c r="J88"/>
@@ -7567,7 +7552,7 @@
         <v>126</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I89"/>
       <c r="J89"/>
@@ -7598,7 +7583,7 @@
         <v>126</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I90"/>
       <c r="J90"/>
@@ -7623,14 +7608,14 @@
         <v>10</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="8"/>
       <c r="H91" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.45">
@@ -7652,16 +7637,16 @@
         <v>90</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="G93" s="7">
         <v>2046</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.45">
@@ -7681,7 +7666,7 @@
         <v>126</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.45">
@@ -7701,7 +7686,7 @@
         <v>126</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.45">
@@ -7721,7 +7706,7 @@
         <v>126</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -7741,7 +7726,7 @@
         <v>126</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
@@ -7752,14 +7737,14 @@
         <v>10</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="8"/>
       <c r="H98" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
@@ -7769,43 +7754,28 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C100" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="7"/>
       <c r="H100" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C101" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G101" s="1">
-        <v>32766</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C102" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C103" s="1" t="s">
-        <v>364</v>
-      </c>
+      <c r="C103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C104" t="s">
@@ -7889,42 +7859,42 @@
         <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="K1" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="L1" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>407</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="N1" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="J1" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>413</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>4</v>
@@ -7936,7 +7906,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F2" s="36">
         <v>1</v>
@@ -7945,33 +7915,33 @@
         <v>0</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>4</v>
@@ -7983,7 +7953,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F3" s="36">
         <v>1</v>
@@ -7992,33 +7962,33 @@
         <v>0</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>4</v>
@@ -8030,7 +8000,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F4" s="36">
         <v>1</v>
@@ -8039,33 +8009,33 @@
         <v>0</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>4</v>
@@ -8074,10 +8044,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F5" s="36">
         <v>1</v>
@@ -8086,33 +8056,33 @@
         <v>0</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>4</v>
@@ -8124,7 +8094,7 @@
         <v>71</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F6" s="36">
         <v>1</v>
@@ -8133,33 +8103,33 @@
         <v>0</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>4</v>
@@ -8168,10 +8138,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F7" s="36">
         <v>1</v>
@@ -8180,33 +8150,33 @@
         <v>0</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>4</v>
@@ -8215,10 +8185,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F8" s="36">
         <v>1</v>
@@ -8227,28 +8197,28 @@
         <v>0</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N8" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -8265,7 +8235,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F9" s="36">
         <v>1</v>
@@ -8274,28 +8244,28 @@
         <v>0</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N9" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
@@ -8312,7 +8282,7 @@
         <v>73</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F10" s="36">
         <v>1</v>
@@ -8321,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -8356,10 +8326,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F11" s="36">
         <v>1</v>
@@ -8368,28 +8338,28 @@
         <v>0</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N11" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -8403,10 +8373,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F12" s="36">
         <v>1</v>
@@ -8415,28 +8385,28 @@
         <v>0</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N12" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -8453,7 +8423,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F13" s="36">
         <v>1</v>
@@ -8462,28 +8432,28 @@
         <v>0</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -8500,7 +8470,7 @@
         <v>72</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F14" s="36">
         <v>1</v>
@@ -8509,28 +8479,28 @@
         <v>0</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L14" s="31" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N14" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
@@ -8544,10 +8514,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F15" s="36">
         <v>1</v>
@@ -8556,28 +8526,28 @@
         <v>0</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
@@ -8591,10 +8561,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F16" s="36">
         <v>1</v>
@@ -8603,33 +8573,33 @@
         <v>0</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L16" s="31" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N16" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>10</v>
@@ -8641,7 +8611,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F17" s="38">
         <v>1</v>
@@ -8650,33 +8620,33 @@
         <v>0</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>10</v>
@@ -8688,7 +8658,7 @@
         <v>41</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F18" s="38">
         <v>1</v>
@@ -8697,33 +8667,33 @@
         <v>0</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>10</v>
@@ -8735,7 +8705,7 @@
         <v>42</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F19" s="38">
         <v>1</v>
@@ -8744,33 +8714,33 @@
         <v>0</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M19" s="33" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>10</v>
@@ -8779,10 +8749,10 @@
         <v>9</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F20" s="38">
         <v>1</v>
@@ -8791,33 +8761,33 @@
         <v>0</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>10</v>
@@ -8829,7 +8799,7 @@
         <v>74</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F21" s="38">
         <v>1</v>
@@ -8838,33 +8808,33 @@
         <v>0</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>10</v>
@@ -8873,10 +8843,10 @@
         <v>9</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F22" s="38">
         <v>1</v>
@@ -8885,33 +8855,33 @@
         <v>0</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>10</v>
@@ -8920,10 +8890,10 @@
         <v>9</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F23" s="38">
         <v>1</v>
@@ -8932,28 +8902,28 @@
         <v>0</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M23" s="33" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
@@ -8970,7 +8940,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F24" s="38">
         <v>1</v>
@@ -8979,28 +8949,28 @@
         <v>0</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L24" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
@@ -9017,7 +8987,7 @@
         <v>76</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F25" s="38">
         <v>1</v>
@@ -9026,28 +8996,28 @@
         <v>0</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L25" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M25" s="33" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -9061,10 +9031,10 @@
         <v>9</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F26" s="38">
         <v>1</v>
@@ -9073,28 +9043,28 @@
         <v>0</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L26" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M26" s="33" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
@@ -9108,10 +9078,10 @@
         <v>9</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F27" s="38">
         <v>1</v>
@@ -9120,28 +9090,28 @@
         <v>0</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L27" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M27" s="33" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
@@ -9158,7 +9128,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F28" s="38">
         <v>1</v>
@@ -9167,28 +9137,28 @@
         <v>0</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
@@ -9205,7 +9175,7 @@
         <v>75</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F29" s="38">
         <v>1</v>
@@ -9214,28 +9184,28 @@
         <v>0</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L29" s="33" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M29" s="33" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N29" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
@@ -9249,10 +9219,10 @@
         <v>9</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F30" s="38">
         <v>1</v>
@@ -9261,28 +9231,28 @@
         <v>0</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L30" s="33" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M30" s="33" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N30" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
@@ -9296,10 +9266,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F31" s="38">
         <v>1</v>
@@ -9308,28 +9278,28 @@
         <v>0</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L31" s="33" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M31" s="33" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N31" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -9374,18 +9344,18 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -9400,14 +9370,14 @@
         <v>71</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -9422,14 +9392,14 @@
         <v>71</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -9444,7 +9414,7 @@
         <v>71</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -9466,7 +9436,7 @@
         <v>72</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -9488,7 +9458,7 @@
         <v>72</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -9510,7 +9480,7 @@
         <v>73</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -9532,14 +9502,14 @@
         <v>73</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -9554,14 +9524,14 @@
         <v>74</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -9576,14 +9546,14 @@
         <v>74</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -9598,7 +9568,7 @@
         <v>74</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -9620,7 +9590,7 @@
         <v>75</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -9642,7 +9612,7 @@
         <v>75</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -9664,7 +9634,7 @@
         <v>76</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -9686,7 +9656,7 @@
         <v>76</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -9724,330 +9694,330 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>136</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="21">
         <v>97</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J2" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="L2" s="21">
         <v>80</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>139</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="21">
         <v>98</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J3" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="L3" s="21">
         <v>443</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>133</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="21">
         <v>99</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J4" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="L4" s="21">
         <v>21</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="21">
         <v>100</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J5" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="L5" s="21">
         <v>23</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6" s="21">
         <v>101</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="L6" s="21">
         <v>22</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" s="21">
         <v>4000</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J7" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="L7" s="21">
         <v>3389</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>119</v>
-      </c>
       <c r="D8" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="21">
         <v>4096</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J8" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="L8" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -10091,15 +10061,15 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -10118,7 +10088,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -10137,7 +10107,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -10232,7 +10202,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -10251,7 +10221,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -10270,7 +10240,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -10395,19 +10365,19 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="18"/>
@@ -10422,16 +10392,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="14"/>
@@ -10446,16 +10416,16 @@
         <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="14"/>
@@ -10470,16 +10440,16 @@
         <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="14"/>
@@ -10494,16 +10464,16 @@
         <v>77</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="14"/>
@@ -10518,16 +10488,16 @@
         <v>65</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="14"/>
@@ -10542,16 +10512,16 @@
         <v>66</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="14"/>
@@ -10566,16 +10536,16 @@
         <v>67</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="14"/>
@@ -10590,16 +10560,16 @@
         <v>68</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="14"/>
@@ -10614,16 +10584,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="14"/>
@@ -10638,16 +10608,16 @@
         <v>64</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="14"/>
@@ -10662,16 +10632,16 @@
         <v>63</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -10686,16 +10656,16 @@
         <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="14"/>
@@ -10710,16 +10680,16 @@
         <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -10727,16 +10697,16 @@
         <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -10744,16 +10714,16 @@
         <v>60</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -10761,16 +10731,16 @@
         <v>61</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -10824,18 +10794,18 @@
         <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -10856,14 +10826,14 @@
         <v>29</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -10884,14 +10854,14 @@
         <v>30</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -10912,7 +10882,7 @@
         <v>78</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -10940,7 +10910,7 @@
         <v>33</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -10968,7 +10938,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -10996,7 +10966,7 @@
         <v>35</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -11024,14 +10994,14 @@
         <v>34</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -11052,14 +11022,14 @@
         <v>32</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -11080,14 +11050,14 @@
         <v>36</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -11108,7 +11078,7 @@
         <v>57</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -11136,7 +11106,7 @@
         <v>39</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -11164,7 +11134,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -11192,7 +11162,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -11220,7 +11190,7 @@
         <v>38</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -11264,7 +11234,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
@@ -11275,7 +11245,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -11287,7 +11257,7 @@
         <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>71</v>
@@ -11298,7 +11268,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -11310,7 +11280,7 @@
         <v>92</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>71</v>
@@ -11321,7 +11291,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -11333,7 +11303,7 @@
         <v>93</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>71</v>
@@ -11344,7 +11314,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -11356,7 +11326,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>71</v>
@@ -11367,7 +11337,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -11379,7 +11349,7 @@
         <v>95</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>71</v>
@@ -11390,7 +11360,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -11402,7 +11372,7 @@
         <v>96</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>71</v>
@@ -11413,7 +11383,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -11425,7 +11395,7 @@
         <v>97</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>71</v>
@@ -11436,7 +11406,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
@@ -11448,7 +11418,7 @@
         <v>98</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>71</v>
@@ -11459,7 +11429,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
@@ -11471,7 +11441,7 @@
         <v>99</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>71</v>
@@ -11482,7 +11452,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
@@ -11494,7 +11464,7 @@
         <v>100</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>71</v>
@@ -11505,7 +11475,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>4</v>
@@ -11517,7 +11487,7 @@
         <v>101</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>71</v>
@@ -11540,7 +11510,7 @@
         <v>102</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>72</v>
@@ -11563,7 +11533,7 @@
         <v>103</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>72</v>
@@ -11586,7 +11556,7 @@
         <v>104</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>72</v>
@@ -11609,7 +11579,7 @@
         <v>101</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>72</v>
@@ -11632,7 +11602,7 @@
         <v>105</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>72</v>
@@ -11655,7 +11625,7 @@
         <v>102</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>72</v>
@@ -11678,7 +11648,7 @@
         <v>103</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>72</v>
@@ -11701,7 +11671,7 @@
         <v>104</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>72</v>
@@ -11724,7 +11694,7 @@
         <v>101</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>72</v>
@@ -11747,7 +11717,7 @@
         <v>102</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>73</v>
@@ -11770,7 +11740,7 @@
         <v>103</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>73</v>
@@ -11793,7 +11763,7 @@
         <v>104</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>73</v>
@@ -11816,7 +11786,7 @@
         <v>101</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>73</v>
@@ -11839,7 +11809,7 @@
         <v>102</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>73</v>
@@ -11862,7 +11832,7 @@
         <v>103</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>73</v>
@@ -11885,7 +11855,7 @@
         <v>104</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>73</v>
@@ -11908,7 +11878,7 @@
         <v>101</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>73</v>
@@ -11919,7 +11889,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>10</v>
@@ -11931,7 +11901,7 @@
         <v>91</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>74</v>
@@ -11942,7 +11912,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>10</v>
@@ -11954,7 +11924,7 @@
         <v>92</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>74</v>
@@ -11965,7 +11935,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>10</v>
@@ -11977,7 +11947,7 @@
         <v>93</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>74</v>
@@ -11988,7 +11958,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>10</v>
@@ -12000,7 +11970,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>74</v>
@@ -12011,7 +11981,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>10</v>
@@ -12023,7 +11993,7 @@
         <v>95</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>74</v>
@@ -12034,7 +12004,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>10</v>
@@ -12046,7 +12016,7 @@
         <v>96</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>74</v>
@@ -12057,7 +12027,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>10</v>
@@ -12069,7 +12039,7 @@
         <v>97</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>74</v>
@@ -12080,7 +12050,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>10</v>
@@ -12092,7 +12062,7 @@
         <v>98</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>74</v>
@@ -12103,7 +12073,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>10</v>
@@ -12115,7 +12085,7 @@
         <v>99</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>74</v>
@@ -12126,7 +12096,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>10</v>
@@ -12138,7 +12108,7 @@
         <v>100</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>74</v>
@@ -12149,7 +12119,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>10</v>
@@ -12161,7 +12131,7 @@
         <v>101</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>74</v>
@@ -12184,7 +12154,7 @@
         <v>102</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>75</v>
@@ -12207,7 +12177,7 @@
         <v>103</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>75</v>
@@ -12230,7 +12200,7 @@
         <v>104</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>75</v>
@@ -12253,7 +12223,7 @@
         <v>101</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>75</v>
@@ -12276,7 +12246,7 @@
         <v>105</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>75</v>
@@ -12299,7 +12269,7 @@
         <v>102</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>75</v>
@@ -12322,7 +12292,7 @@
         <v>103</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>75</v>
@@ -12345,7 +12315,7 @@
         <v>104</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>75</v>
@@ -12368,7 +12338,7 @@
         <v>101</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>75</v>
@@ -12391,7 +12361,7 @@
         <v>102</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>76</v>
@@ -12414,7 +12384,7 @@
         <v>103</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>76</v>
@@ -12437,7 +12407,7 @@
         <v>104</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>76</v>
@@ -12460,7 +12430,7 @@
         <v>101</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>76</v>
@@ -12483,7 +12453,7 @@
         <v>102</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>76</v>
@@ -12506,7 +12476,7 @@
         <v>103</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>76</v>
@@ -12529,7 +12499,7 @@
         <v>104</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>76</v>
@@ -12552,7 +12522,7 @@
         <v>101</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>76</v>

--- a/AzureTemplateGenerator/AzureNetworkInfrastructure.xlsx
+++ b/AzureTemplateGenerator/AzureNetworkInfrastructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="8955" tabRatio="693" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="8955" tabRatio="693" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="SUB" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="428">
   <si>
     <t>SUB</t>
   </si>
@@ -3577,7 +3577,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3676,8 +3676,8 @@
       <c r="H3" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>378</v>
+      <c r="I3" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3688,10 +3688,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3705,9 +3705,10 @@
     <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3735,8 +3736,11 @@
       <c r="I1" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>328</v>
       </c>
@@ -3762,8 +3766,11 @@
         <v>234</v>
       </c>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>328</v>
       </c>
@@ -3789,6 +3796,9 @@
         <v>235</v>
       </c>
       <c r="I3" s="3"/>
+      <c r="J3" s="4" t="s">
+        <v>375</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4447,7 +4457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -4788,7 +4798,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7838,7 +7848,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="O2" sqref="O2:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9324,10 +9334,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9338,10 +9348,10 @@
     <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9361,13 +9371,10 @@
         <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>328</v>
       </c>
@@ -9386,10 +9393,11 @@
       <c r="F2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>328</v>
       </c>
@@ -9408,10 +9416,11 @@
       <c r="F3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>328</v>
       </c>
@@ -9430,10 +9439,11 @@
       <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>374</v>
       </c>
@@ -9452,10 +9462,11 @@
       <c r="F5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>374</v>
       </c>
@@ -9474,10 +9485,11 @@
       <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>373</v>
       </c>
@@ -9496,10 +9508,11 @@
       <c r="F7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>373</v>
       </c>
@@ -9518,10 +9531,11 @@
       <c r="F8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>328</v>
       </c>
@@ -9540,10 +9554,11 @@
       <c r="F9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>328</v>
       </c>
@@ -9562,10 +9577,11 @@
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>328</v>
       </c>
@@ -9584,10 +9600,11 @@
       <c r="F11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>374</v>
       </c>
@@ -9606,10 +9623,11 @@
       <c r="F12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>374</v>
       </c>
@@ -9628,10 +9646,11 @@
       <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>373</v>
       </c>
@@ -9650,10 +9669,11 @@
       <c r="F14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>373</v>
       </c>
@@ -9672,8 +9692,9 @@
       <c r="F15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10045,7 +10066,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10730,10 +10751,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10746,9 +10767,10 @@
     <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10773,8 +10795,11 @@
       <c r="H1" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>328</v>
       </c>
@@ -10799,8 +10824,11 @@
       <c r="H2" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>328</v>
       </c>
@@ -10825,8 +10853,11 @@
       <c r="H3" s="4" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>328</v>
       </c>
@@ -10851,8 +10882,11 @@
       <c r="H4" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>374</v>
       </c>
@@ -10877,8 +10911,11 @@
       <c r="H5" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>374</v>
       </c>
@@ -10903,8 +10940,11 @@
       <c r="H6" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>373</v>
       </c>
@@ -10929,8 +10969,11 @@
       <c r="H7" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>373</v>
       </c>
@@ -10955,8 +10998,11 @@
       <c r="H8" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>328</v>
       </c>
@@ -10981,8 +11027,11 @@
       <c r="H9" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>328</v>
       </c>
@@ -11007,8 +11056,11 @@
       <c r="H10" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>328</v>
       </c>
@@ -11033,8 +11085,11 @@
       <c r="H11" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>374</v>
       </c>
@@ -11059,8 +11114,11 @@
       <c r="H12" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>374</v>
       </c>
@@ -11085,8 +11143,11 @@
       <c r="H13" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>373</v>
       </c>
@@ -11111,8 +11172,11 @@
       <c r="H14" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>373</v>
       </c>
@@ -11136,6 +11200,9 @@
       </c>
       <c r="H15" s="3" t="s">
         <v>233</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/AzureTemplateGenerator/AzureNetworkInfrastructure.xlsx
+++ b/AzureTemplateGenerator/AzureNetworkInfrastructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="8955" tabRatio="693" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="8955" tabRatio="693" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="SUB" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="426">
   <si>
     <t>SUB</t>
   </si>
@@ -1320,13 +1320,7 @@
     <t>DNPRD-CAEA-EXTWORKLOAD-RT</t>
   </si>
   <si>
-    <t>0b251b66-c41d-4ea3-925e-b6ce6b64f970</t>
-  </si>
-  <si>
-    <t>f5963e61-482e-47a2-a706-b31c08078662</t>
-  </si>
-  <si>
-    <t>f7154194-75eb-4c75-9b8e-78fb73c783d5</t>
+    <t>xxxxxxxx-xxxx-xxxx-xxxx-xxxxxxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1773,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1803,7 @@
         <v>373</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1817,7 +1811,7 @@
         <v>374</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -3577,7 +3571,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3690,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4182,7 +4176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4354,7 +4350,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4798,7 +4794,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5115,7 +5111,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5217,7 +5213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -7848,7 +7844,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O31"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8664,7 +8660,7 @@
       <c r="N17" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="4" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8711,7 +8707,7 @@
       <c r="N18" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="4" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8758,7 +8754,7 @@
       <c r="N19" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="4" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8805,7 +8801,7 @@
       <c r="N20" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="4" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8852,7 +8848,7 @@
       <c r="N21" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="4" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8899,7 +8895,7 @@
       <c r="N22" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="4" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8946,7 +8942,7 @@
       <c r="N23" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="4" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8993,7 +8989,7 @@
       <c r="N24" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="4" t="s">
         <v>376</v>
       </c>
     </row>
@@ -9040,7 +9036,7 @@
       <c r="N25" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="4" t="s">
         <v>376</v>
       </c>
     </row>
@@ -9087,7 +9083,7 @@
       <c r="N26" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="4" t="s">
         <v>376</v>
       </c>
     </row>
@@ -9134,7 +9130,7 @@
       <c r="N27" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="4" t="s">
         <v>376</v>
       </c>
     </row>
@@ -9181,7 +9177,7 @@
       <c r="N28" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="O28" s="4" t="s">
         <v>377</v>
       </c>
     </row>
@@ -9228,7 +9224,7 @@
       <c r="N29" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="4" t="s">
         <v>377</v>
       </c>
     </row>
@@ -9275,7 +9271,7 @@
       <c r="N30" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="O30" s="4" t="s">
         <v>377</v>
       </c>
     </row>
@@ -9322,7 +9318,7 @@
       <c r="N31" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="4" t="s">
         <v>377</v>
       </c>
     </row>
@@ -9337,7 +9333,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AzureTemplateGenerator/AzureNetworkInfrastructure.xlsx
+++ b/AzureTemplateGenerator/AzureNetworkInfrastructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="8955" tabRatio="693" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="8955" tabRatio="693"/>
   </bookViews>
   <sheets>
     <sheet name="SUB" sheetId="2" r:id="rId1"/>
@@ -1772,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5213,7 +5213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -9333,7 +9333,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9459,7 +9459,7 @@
         <v>42</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -9482,7 +9482,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -9505,7 +9505,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -9528,7 +9528,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -9703,7 +9703,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9778,7 +9778,7 @@
         <v>92</v>
       </c>
       <c r="E2" s="21">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>93</v>
@@ -9819,7 +9819,7 @@
         <v>92</v>
       </c>
       <c r="E3" s="21">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>93</v>
@@ -9860,7 +9860,7 @@
         <v>92</v>
       </c>
       <c r="E4" s="21">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>93</v>

--- a/AzureTemplateGenerator/AzureNetworkInfrastructure.xlsx
+++ b/AzureTemplateGenerator/AzureNetworkInfrastructure.xlsx
@@ -1320,7 +1320,7 @@
     <t>DNPRD-CAEA-EXTWORKLOAD-RT</t>
   </si>
   <si>
-    <t>xxxxxxxx-xxxx-xxxx-xxxx-xxxxxxxxxxxx</t>
+    <t>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1773,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4177,7 +4177,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10750,7 +10750,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10908,7 +10908,7 @@
         <v>223</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -10937,7 +10937,7 @@
         <v>224</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -10966,7 +10966,7 @@
         <v>225</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -10995,7 +10995,7 @@
         <v>226</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">

--- a/AzureTemplateGenerator/AzureNetworkInfrastructure.xlsx
+++ b/AzureTemplateGenerator/AzureNetworkInfrastructure.xlsx
@@ -1320,7 +1320,7 @@
     <t>DNPRD-CAEA-EXTWORKLOAD-RT</t>
   </si>
   <si>
-    <t>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
+    <t>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1773,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11212,7 +11212,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
